--- a/data/trans_camb/IP25-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP25-Habitat-trans_camb.xlsx
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>Menos de 2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>6,87</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>1,41</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-86,78</t>
+          <t>-87,44</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>-0,66</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>-8,59</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-88,38</t>
+          <t>-96,86</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>3,31</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>-3,31</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-87,55</t>
+          <t>-91,88</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 8,77</t>
+          <t>-4,91; 22,83</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 9,31</t>
+          <t>-15,72; 18,03</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-90,49; -82,94</t>
+          <t>-96,77; -71,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 6,82</t>
+          <t>-11,8; 6,5</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 7,09</t>
+          <t>-26,12; 3,14</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-91,44; -84,41</t>
+          <t>-100,0; -82,3</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 6,67</t>
+          <t>-4,87; 13,08</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0,21; 6,62</t>
+          <t>-14,54; 8,25</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-89,96; -84,66</t>
+          <t>-96,92; -82,19</t>
         </is>
       </c>
     </row>
@@ -738,12 +738,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>7,85%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>-0,68%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>-8,87%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>3,6%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>-3,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 10,42</t>
+          <t>-5,2; 32,14</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 11,13</t>
+          <t>-16,75; 22,79</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 8,03</t>
+          <t>-12,17; 6,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 8,42</t>
+          <t>-26,88; 3,16</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 7,86</t>
+          <t>-4,96; 15,68</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0,22; 7,74</t>
+          <t>-15,66; 9,74</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>10/50</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-86,61</t>
+          <t>-86,78</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>-4,18</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-5,78</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-92,74</t>
+          <t>-88,38</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-89,68</t>
+          <t>-87,55</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,33; 10,52</t>
+          <t>-1,31; 8,77</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 7,11</t>
+          <t>-0,19; 9,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-90,04; -82,32</t>
+          <t>-90,49; -82,94</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 0,32</t>
+          <t>-2,19; 6,82</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-11,03; -1,15</t>
+          <t>-2,33; 7,09</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-95,49; -89,08</t>
+          <t>-91,44; -84,41</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 4,4</t>
+          <t>-0,35; 6,67</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 1,79</t>
+          <t>0,21; 6,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-91,8; -86,88</t>
+          <t>-89,96; -84,66</t>
         </is>
       </c>
     </row>
@@ -1170,12 +1170,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1185,12 +1185,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>-4,5%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-6,24%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1200,12 +1200,12 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-2,21%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,43; 12,66</t>
+          <t>-1,46; 10,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 8,47</t>
+          <t>-0,34; 11,13</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 0,35</t>
+          <t>-2,4; 8,03</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-11,67; -1,26</t>
+          <t>-2,54; 8,42</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 5,07</t>
+          <t>-0,33; 7,86</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 2,06</t>
+          <t>0,22; 7,74</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>mas de 50</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>6,66</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-87,44</t>
+          <t>-88,28</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-8,59</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-96,86</t>
+          <t>-88,75</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-3,31</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-91,88</t>
+          <t>-88,5</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 22,83</t>
+          <t>-3,03; 7,8</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 18,03</t>
+          <t>1,85; 11,48</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-96,77; -71,52</t>
+          <t>-91,82; -83,13</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 6,5</t>
+          <t>-10,46; 2,11</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-26,12; 3,14</t>
+          <t>-0,35; 9,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -82,3</t>
+          <t>-92,63; -83,87</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 13,08</t>
+          <t>-4,63; 3,55</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-14,54; 8,25</t>
+          <t>2,26; 9,33</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-96,92; -82,19</t>
+          <t>-90,94; -85,18</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1386,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1401,12 +1401,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-0,68%</t>
+          <t>-4,76%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-8,87%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1416,12 +1416,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>-1,01%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-3,6%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 32,14</t>
+          <t>-3,29; 9,27</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-16,75; 22,79</t>
+          <t>2,06; 13,57</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 6,94</t>
+          <t>-11,47; 2,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-26,88; 3,16</t>
+          <t>-0,38; 11,11</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 15,68</t>
+          <t>-5,16; 4,13</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 9,74</t>
+          <t>2,5; 10,85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1486,7 +1486,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>6,66</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-88,28</t>
+          <t>-86,61</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-4,22</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-88,75</t>
+          <t>-92,74</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-88,5</t>
+          <t>-89,68</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 7,8</t>
+          <t>0,33; 10,52</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>1,85; 11,48</t>
+          <t>-3,22; 7,11</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-91,82; -83,13</t>
+          <t>-90,04; -82,32</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 2,11</t>
+          <t>-9,43; 0,32</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 9,47</t>
+          <t>-11,03; -1,15</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-92,63; -83,87</t>
+          <t>-95,49; -89,08</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 3,55</t>
+          <t>-2,73; 4,4</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>2,26; 9,33</t>
+          <t>-5,75; 1,79</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-90,94; -85,18</t>
+          <t>-91,8; -86,88</t>
         </is>
       </c>
     </row>
@@ -1602,12 +1602,12 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1617,12 +1617,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-4,76%</t>
+          <t>-4,5%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>-6,24%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1632,12 +1632,12 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>-1,01%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>-2,21%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 9,27</t>
+          <t>0,43; 12,66</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>2,06; 13,57</t>
+          <t>-3,6; 8,47</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 2,53</t>
+          <t>-9,98; 0,35</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 11,11</t>
+          <t>-11,67; -1,26</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 4,13</t>
+          <t>-2,96; 5,07</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>2,5; 10,85</t>
+          <t>-6,26; 2,06</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">

--- a/data/trans_camb/IP25-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP25-Habitat-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:K28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,91; 22,83</t>
+          <t>-5,44; 22,36</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,72; 18,03</t>
+          <t>-15,38; 18,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-96,77; -71,52</t>
+          <t>-96,79; -70,8</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,8; 6,5</t>
+          <t>-14,57; 6,34</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,12; 3,14</t>
+          <t>-25,24; 3,12</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -82,3</t>
+          <t>-100,0; -82,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,87; 13,08</t>
+          <t>-5,0; 11,76</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,54; 8,25</t>
+          <t>-15,39; 7,02</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-96,92; -82,19</t>
+          <t>-97,0; -82,25</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,2; 32,14</t>
+          <t>-5,7; 30,06</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,75; 22,79</t>
+          <t>-16,6; 24,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,17; 6,94</t>
+          <t>-14,71; 6,76</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,88; 3,16</t>
+          <t>-25,7; 3,14</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,96; 15,68</t>
+          <t>-5,0; 14,38</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,66; 9,74</t>
+          <t>-16,58; 8,14</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,38; 7,46</t>
+          <t>-4,49; 7,53</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,69; 8,67</t>
+          <t>-3,86; 8,2</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-93,18; -84,5</t>
+          <t>-93,42; -84,68</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,74; 8,66</t>
+          <t>-3,91; 8,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,67; 6,2</t>
+          <t>-6,38; 5,91</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-93,88; -84,24</t>
+          <t>-93,96; -84,32</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,27; 6,3</t>
+          <t>-2,49; 5,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 5,56</t>
+          <t>-3,33; 5,41</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-92,29; -85,94</t>
+          <t>-92,5; -86,12</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 8,75</t>
+          <t>-4,85; 8,72</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 10,12</t>
+          <t>-4,27; 9,58</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,0; 10,22</t>
+          <t>-4,2; 9,9</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,25; 7,16</t>
+          <t>-6,89; 6,87</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,48; 7,26</t>
+          <t>-2,74; 6,82</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 6,38</t>
+          <t>-3,7; 6,17</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,31; 8,77</t>
+          <t>-1,47; 8,63</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 9,31</t>
+          <t>-0,26; 9,13</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-90,49; -82,94</t>
+          <t>-90,2; -82,69</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,19; 6,82</t>
+          <t>-2,49; 7,07</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 7,09</t>
+          <t>-2,51; 7,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-91,44; -84,41</t>
+          <t>-91,92; -84,22</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 6,67</t>
+          <t>-0,48; 6,3</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,21; 6,62</t>
+          <t>-0,01; 6,62</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-89,96; -84,66</t>
+          <t>-89,87; -84,69</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,46; 10,42</t>
+          <t>-1,56; 10,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,34; 11,13</t>
+          <t>-0,13; 10,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,4; 8,03</t>
+          <t>-2,74; 8,34</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,54; 8,42</t>
+          <t>-2,73; 8,36</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,33; 7,86</t>
+          <t>-0,46; 7,45</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0,22; 7,74</t>
+          <t>-0,04; 7,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,03; 7,8</t>
+          <t>-3,22; 8,39</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,85; 11,48</t>
+          <t>1,72; 12,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-91,82; -83,13</t>
+          <t>-91,76; -83,45</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,46; 2,11</t>
+          <t>-10,94; 1,51</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,35; 9,47</t>
+          <t>0,11; 9,93</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-92,63; -83,87</t>
+          <t>-92,63; -84,12</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,63; 3,55</t>
+          <t>-5,26; 3,21</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>2,26; 9,33</t>
+          <t>1,76; 8,91</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-90,94; -85,18</t>
+          <t>-91,41; -85,58</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,29; 9,27</t>
+          <t>-3,49; 9,91</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,06; 13,57</t>
+          <t>1,93; 14,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,47; 2,53</t>
+          <t>-11,93; 1,9</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,38; 11,11</t>
+          <t>0,13; 11,69</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,16; 4,13</t>
+          <t>-5,76; 3,78</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,5; 10,85</t>
+          <t>1,92; 10,36</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,33; 10,52</t>
+          <t>1,0; 11,25</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 7,11</t>
+          <t>-3,67; 7,0</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-90,04; -82,32</t>
+          <t>-89,87; -82,02</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-9,43; 0,32</t>
+          <t>-8,6; 0,74</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-11,03; -1,15</t>
+          <t>-10,43; -0,64</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-95,49; -89,08</t>
+          <t>-95,38; -89,02</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 4,4</t>
+          <t>-2,68; 4,26</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,75; 1,79</t>
+          <t>-5,49; 1,69</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-91,8; -86,88</t>
+          <t>-91,86; -86,92</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,43; 12,66</t>
+          <t>1,16; 13,52</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-3,6; 8,47</t>
+          <t>-4,02; 8,41</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,98; 0,35</t>
+          <t>-9,21; 0,81</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-11,67; -1,26</t>
+          <t>-11,01; -0,69</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-2,96; 5,07</t>
+          <t>-2,87; 4,84</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-6,26; 2,06</t>
+          <t>-6,0; 1,92</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,28; 6,59</t>
+          <t>1,21; 6,35</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>1,31; 6,68</t>
+          <t>0,86; 6,36</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-89,27; -85,22</t>
+          <t>-89,52; -85,66</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,85; 1,47</t>
+          <t>-3,88; 1,22</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 2,18</t>
+          <t>-2,87; 2,13</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-91,9; -88,23</t>
+          <t>-91,98; -88,46</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,53; 3,18</t>
+          <t>-0,52; 3,1</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,16; 3,5</t>
+          <t>-0,13; 3,63</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-90,1; -87,45</t>
+          <t>-90,13; -87,46</t>
         </is>
       </c>
     </row>
@@ -1871,12 +1871,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1,43; 7,75</t>
+          <t>1,37; 7,42</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>1,49; 7,84</t>
+          <t>0,98; 7,38</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1886,12 +1886,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-4,22; 1,66</t>
+          <t>-4,28; 1,37</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-3,26; 2,46</t>
+          <t>-3,14; 2,38</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1901,17 +1901,24 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-0,6; 3,63</t>
+          <t>-0,59; 3,52</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-0,17; 3,98</t>
+          <t>-0,13; 4,17</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/IP25-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP25-Habitat-trans_camb.xlsx
@@ -567,7 +567,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -582,7 +582,7 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="H2" s="3" t="inlineStr">
@@ -597,7 +597,7 @@
       </c>
       <c r="J2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="K2" s="3" t="inlineStr">
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-5,44; 22,36</t>
+          <t>-4,88; 24,8</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-15,38; 18,98</t>
+          <t>-16,77; 17,51</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-96,79; -70,8</t>
+          <t>-96,73; -69,16</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,57; 6,34</t>
+          <t>-11,9; 6,39</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-25,24; 3,12</t>
+          <t>-26,98; 3,26</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -82,48</t>
+          <t>-100,0; -83,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 11,76</t>
+          <t>-4,61; 14,32</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-15,39; 7,02</t>
+          <t>-14,54; 6,68</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-97,0; -82,25</t>
+          <t>-96,84; -79,7</t>
         </is>
       </c>
     </row>
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,7; 30,06</t>
+          <t>-5,21; 33,87</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-16,6; 24,41</t>
+          <t>-17,91; 22,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-14,71; 6,76</t>
+          <t>-12,1; 6,82</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-25,7; 3,14</t>
+          <t>-28,46; 3,34</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,0; 14,38</t>
+          <t>-4,75; 17,26</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-16,58; 8,14</t>
+          <t>-15,26; 7,85</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,49; 7,53</t>
+          <t>-4,37; 7,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,86; 8,2</t>
+          <t>-3,72; 8,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-93,42; -84,68</t>
+          <t>-93,19; -84,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 8,42</t>
+          <t>-3,42; 8,52</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,38; 5,91</t>
+          <t>-6,88; 5,88</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-93,96; -84,32</t>
+          <t>-93,66; -84,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 5,99</t>
+          <t>-2,33; 6,1</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,33; 5,41</t>
+          <t>-3,31; 5,51</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-92,5; -86,12</t>
+          <t>-92,48; -85,8</t>
         </is>
       </c>
     </row>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,85; 8,72</t>
+          <t>-4,8; 8,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,27; 9,58</t>
+          <t>-4,05; 9,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 9,9</t>
+          <t>-3,72; 9,84</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-6,89; 6,87</t>
+          <t>-7,41; 6,83</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 6,82</t>
+          <t>-2,56; 7,02</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,7; 6,17</t>
+          <t>-3,65; 6,34</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,47; 8,63</t>
+          <t>-1,73; 8,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,26; 9,13</t>
+          <t>-0,27; 9,2</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-90,2; -82,69</t>
+          <t>-90,27; -82,65</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,49; 7,07</t>
+          <t>-2,29; 6,87</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,51; 7,19</t>
+          <t>-2,76; 6,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-91,92; -84,22</t>
+          <t>-91,61; -84,46</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,48; 6,3</t>
+          <t>-0,52; 6,38</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,01; 6,62</t>
+          <t>-0,14; 6,55</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-89,87; -84,69</t>
+          <t>-90,12; -84,77</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 10,45</t>
+          <t>-1,91; 10,56</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 10,96</t>
+          <t>-0,23; 11,02</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,74; 8,34</t>
+          <t>-2,47; 8,18</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-2,73; 8,36</t>
+          <t>-3,0; 8,19</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 7,45</t>
+          <t>-0,57; 7,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,04; 7,76</t>
+          <t>-0,15; 7,68</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,22; 8,39</t>
+          <t>-2,65; 7,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,72; 12,1</t>
+          <t>1,67; 11,25</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-91,76; -83,45</t>
+          <t>-91,7; -83,56</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,94; 1,51</t>
+          <t>-10,04; 1,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,11; 9,93</t>
+          <t>-0,12; 9,46</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-92,63; -84,12</t>
+          <t>-92,72; -84,34</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 3,21</t>
+          <t>-5,43; 2,87</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,76; 8,91</t>
+          <t>1,94; 9,17</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-91,41; -85,58</t>
+          <t>-91,2; -85,32</t>
         </is>
       </c>
     </row>
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-3,49; 9,91</t>
+          <t>-2,89; 9,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,93; 14,39</t>
+          <t>1,82; 13,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,93; 1,9</t>
+          <t>-11,24; 2,0</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,13; 11,69</t>
+          <t>-0,13; 11,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 3,78</t>
+          <t>-6,02; 3,32</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>1,92; 10,36</t>
+          <t>2,21; 10,71</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>1,0; 11,25</t>
+          <t>0,86; 10,63</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 7,0</t>
+          <t>-3,08; 7,13</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-89,87; -82,02</t>
+          <t>-90,26; -82,35</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,6; 0,74</t>
+          <t>-8,48; 0,76</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,43; -0,64</t>
+          <t>-10,65; -1,1</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-95,38; -89,02</t>
+          <t>-95,15; -88,88</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,68; 4,26</t>
+          <t>-2,6; 4,25</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,49; 1,69</t>
+          <t>-5,65; 1,57</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-91,86; -86,92</t>
+          <t>-92,01; -87,15</t>
         </is>
       </c>
     </row>
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>1,16; 13,52</t>
+          <t>0,97; 12,68</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-4,02; 8,41</t>
+          <t>-3,48; 8,62</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,21; 0,81</t>
+          <t>-9,04; 0,78</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-11,01; -0,69</t>
+          <t>-11,35; -1,3</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 4,84</t>
+          <t>-2,86; 4,84</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 1,92</t>
+          <t>-6,18; 1,77</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1765,47 +1765,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>1,21; 6,35</t>
+          <t>1,02; 6,37</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>0,86; 6,36</t>
+          <t>1,01; 6,35</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>-89,52; -85,66</t>
+          <t>-89,33; -85,61</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>-3,88; 1,22</t>
+          <t>-3,61; 1,5</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>-2,87; 2,13</t>
+          <t>-3,12; 1,98</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>-91,98; -88,46</t>
+          <t>-91,93; -88,37</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 3,1</t>
+          <t>-0,7; 3,06</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 3,63</t>
+          <t>-0,13; 3,44</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>-90,13; -87,46</t>
+          <t>-90,15; -87,52</t>
         </is>
       </c>
     </row>
@@ -1871,12 +1871,12 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,42</t>
+          <t>1,16; 7,45</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>0,98; 7,38</t>
+          <t>1,15; 7,43</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
@@ -1886,12 +1886,12 @@
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>-4,28; 1,37</t>
+          <t>-3,95; 1,72</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>-3,14; 2,38</t>
+          <t>-3,42; 2,21</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
@@ -1901,12 +1901,12 @@
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>-0,59; 3,52</t>
+          <t>-0,78; 3,46</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 4,17</t>
+          <t>-0,14; 3,93</t>
         </is>
       </c>
       <c r="K27" s="2" t="inlineStr">

--- a/data/trans_camb/IP25-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/IP25-Habitat-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K28"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,14 +537,14 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="G1" s="3" t="n"/>
@@ -622,7 +622,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -632,47 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,87</t>
+          <t>1,8</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,41</t>
+          <t>-1,45</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-87,44</t>
+          <t>-90,94</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,66</t>
+          <t>2,52</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-8,59</t>
+          <t>2,25</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-96,86</t>
+          <t>-89,12</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>3,31</t>
+          <t>2,17</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-3,31</t>
+          <t>0,5</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-91,88</t>
+          <t>-89,99</t>
         </is>
       </c>
     </row>
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,88; 24,8</t>
+          <t>-3,72; 6,89</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-16,77; 17,51</t>
+          <t>-7,92; 3,63</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-96,73; -69,16</t>
+          <t>-94,58; -86,62</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-11,9; 6,39</t>
+          <t>-3,24; 8,37</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,98; 3,26</t>
+          <t>-3,69; 7,55</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-100,0; -83,87</t>
+          <t>-92,67; -84,49</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-4,61; 14,32</t>
+          <t>-1,81; 5,92</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,54; 6,68</t>
+          <t>-3,75; 4,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-96,84; -79,7</t>
+          <t>-92,45; -86,52</t>
         </is>
       </c>
     </row>
@@ -738,12 +738,12 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>7,85%</t>
+          <t>1,98%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>-1,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-0,68%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-8,87%</t>
+          <t>2,52%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -768,12 +768,12 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-3,6%</t>
+          <t>0,55%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -791,12 +791,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-5,21; 33,87</t>
+          <t>-4,01; 7,89</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-17,91; 22,38</t>
+          <t>-8,33; 4,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -806,12 +806,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-12,1; 6,82</t>
+          <t>-3,48; 9,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-28,46; 3,34</t>
+          <t>-4,02; 8,64</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 17,26</t>
+          <t>-1,99; 6,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,26; 7,85</t>
+          <t>-4,09; 5,43</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -838,7 +838,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -848,47 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,66</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,44</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-89,46</t>
+          <t>-88,38</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,3</t>
+          <t>3,69</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,03</t>
+          <t>4,47</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-89,78</t>
+          <t>-86,78</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,96</t>
+          <t>2,98</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1,27</t>
+          <t>3,25</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-89,61</t>
+          <t>-87,55</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-4,37; 7,78</t>
+          <t>-2,19; 6,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 8,06</t>
+          <t>-2,33; 7,09</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-93,19; -84,8</t>
+          <t>-91,44; -84,41</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 8,52</t>
+          <t>-1,31; 8,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,88; 5,88</t>
+          <t>-0,19; 9,31</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-93,66; -84,18</t>
+          <t>-90,49; -82,94</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-2,33; 6,1</t>
+          <t>-0,35; 6,67</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-3,31; 5,51</t>
+          <t>0,21; 6,62</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-92,48; -85,8</t>
+          <t>-89,96; -84,66</t>
         </is>
       </c>
     </row>
@@ -954,12 +954,12 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,85%</t>
+          <t>2,49%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,18%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -969,12 +969,12 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-0,03%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
@@ -984,12 +984,12 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>3,4%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1007,12 +1007,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 8,99</t>
+          <t>-2,4; 8,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,05; 9,38</t>
+          <t>-2,54; 8,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1022,12 +1022,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-3,72; 9,84</t>
+          <t>-1,46; 10,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-7,41; 6,83</t>
+          <t>-0,34; 11,13</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -1037,12 +1037,12 @@
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-2,56; 7,02</t>
+          <t>-0,33; 7,86</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-3,65; 6,34</t>
+          <t>0,22; 7,74</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1054,7 +1054,7 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1064,47 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,69</t>
+          <t>-4,22</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>4,47</t>
+          <t>4,55</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-86,78</t>
+          <t>-88,75</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,2</t>
+          <t>2,23</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>6,66</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-88,38</t>
+          <t>-88,28</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>2,98</t>
+          <t>-0,89</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>3,25</t>
+          <t>5,64</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-87,55</t>
+          <t>-88,5</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-1,73; 8,84</t>
+          <t>-10,46; 2,11</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,27; 9,2</t>
+          <t>-0,35; 9,47</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-90,27; -82,65</t>
+          <t>-92,63; -83,87</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-2,29; 6,87</t>
+          <t>-3,03; 7,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-2,76; 6,94</t>
+          <t>1,85; 11,48</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-91,61; -84,46</t>
+          <t>-91,82; -83,13</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,52; 6,38</t>
+          <t>-4,63; 3,55</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 6,55</t>
+          <t>2,26; 9,33</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-90,12; -84,77</t>
+          <t>-90,94; -85,18</t>
         </is>
       </c>
     </row>
@@ -1170,12 +1170,12 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>-4,76%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1185,12 +1185,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1200,12 +1200,12 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,4%</t>
+          <t>-1,01%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>6,37%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1223,12 +1223,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 10,56</t>
+          <t>-11,47; 2,53</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 11,02</t>
+          <t>-0,38; 11,11</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,12 +1238,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-2,47; 8,18</t>
+          <t>-3,29; 9,27</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-3,0; 8,19</t>
+          <t>2,06; 13,57</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1253,12 +1253,12 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-0,57; 7,47</t>
+          <t>-5,16; 4,13</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-0,15; 7,68</t>
+          <t>2,5; 10,85</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1270,7 +1270,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2,23</t>
+          <t>-4,18</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>6,66</t>
+          <t>-5,78</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-88,28</t>
+          <t>-92,74</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-4,22</t>
+          <t>5,79</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>1,83</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-88,75</t>
+          <t>-86,61</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-0,89</t>
+          <t>0,79</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>5,64</t>
+          <t>-1,98</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-88,5</t>
+          <t>-89,68</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 7,61</t>
+          <t>-9,43; 0,32</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,67; 11,25</t>
+          <t>-11,03; -1,15</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-91,7; -83,56</t>
+          <t>-95,49; -89,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-10,04; 1,77</t>
+          <t>0,33; 10,52</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 9,46</t>
+          <t>-3,22; 7,11</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-92,72; -84,34</t>
+          <t>-90,04; -82,32</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-5,43; 2,87</t>
+          <t>-2,73; 4,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,94; 9,17</t>
+          <t>-5,75; 1,79</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-91,2; -85,32</t>
+          <t>-91,8; -86,88</t>
         </is>
       </c>
     </row>
@@ -1386,12 +1386,12 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>-4,5%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>7,54%</t>
+          <t>-6,24%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
@@ -1401,12 +1401,12 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-4,76%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>2,12%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
@@ -1416,12 +1416,12 @@
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-1,01%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>6,37%</t>
+          <t>-2,21%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1439,12 +1439,12 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-2,89; 9,03</t>
+          <t>-9,98; 0,35</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,82; 13,22</t>
+          <t>-11,67; -1,26</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -1454,12 +1454,12 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-11,24; 2,0</t>
+          <t>0,43; 12,66</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-0,13; 11,19</t>
+          <t>-3,6; 8,47</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -1469,12 +1469,12 @@
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 3,32</t>
+          <t>-2,96; 5,07</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2,21; 10,71</t>
+          <t>-6,26; 2,06</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1486,7 +1486,7 @@
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
@@ -1496,47 +1496,47 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>5,79</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>1,83</t>
+          <t>-0,48</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>-86,61</t>
+          <t>-90,31</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>-4,18</t>
+          <t>3,72</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>-5,78</t>
+          <t>3,79</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>-92,74</t>
+          <t>-87,54</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,79</t>
+          <t>1,32</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>-1,98</t>
+          <t>1,71</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>-89,68</t>
+          <t>-88,88</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0,86; 10,63</t>
+          <t>-3,85; 1,47</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-3,08; 7,13</t>
+          <t>-2,99; 2,18</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-90,26; -82,35</t>
+          <t>-91,9; -88,23</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>-8,48; 0,76</t>
+          <t>1,28; 6,59</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-10,65; -1,1</t>
+          <t>1,31; 6,68</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-95,15; -88,88</t>
+          <t>-89,27; -85,22</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-2,6; 4,25</t>
+          <t>-0,53; 3,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-5,65; 1,57</t>
+          <t>-0,16; 3,5</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-92,01; -87,15</t>
+          <t>-90,1; -87,45</t>
         </is>
       </c>
     </row>
@@ -1602,12 +1602,12 @@
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>6,69%</t>
+          <t>-1,36%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>2,12%</t>
+          <t>-0,54%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
@@ -1617,12 +1617,12 @@
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>-4,5%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>-6,24%</t>
+          <t>4,33%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
@@ -1632,12 +1632,12 @@
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
         <is>
-          <t>-2,21%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="K22" s="2" t="inlineStr">
@@ -1655,12 +1655,12 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>0,97; 12,68</t>
+          <t>-4,22; 1,66</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-3,48; 8,62</t>
+          <t>-3,26; 2,46</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
@@ -1670,12 +1670,12 @@
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>-9,04; 0,78</t>
+          <t>1,43; 7,75</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-11,35; -1,3</t>
+          <t>1,49; 7,84</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-2,86; 4,84</t>
+          <t>-0,6; 3,63</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-6,18; 1,77</t>
+          <t>-0,17; 3,98</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
@@ -1700,230 +1700,14 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>Cambio absoluto (puntos porcentuales)</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>3,72</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>3,79</t>
-        </is>
-      </c>
-      <c r="E24" s="2" t="inlineStr">
-        <is>
-          <t>-87,54</t>
-        </is>
-      </c>
-      <c r="F24" s="2" t="inlineStr">
-        <is>
-          <t>-1,23</t>
-        </is>
-      </c>
-      <c r="G24" s="2" t="inlineStr">
-        <is>
-          <t>-0,48</t>
-        </is>
-      </c>
-      <c r="H24" s="2" t="inlineStr">
-        <is>
-          <t>-90,31</t>
-        </is>
-      </c>
-      <c r="I24" s="2" t="inlineStr">
-        <is>
-          <t>1,32</t>
-        </is>
-      </c>
-      <c r="J24" s="2" t="inlineStr">
-        <is>
-          <t>1,71</t>
-        </is>
-      </c>
-      <c r="K24" s="2" t="inlineStr">
-        <is>
-          <t>-88,88</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n"/>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr">
-        <is>
-          <t>1,02; 6,37</t>
-        </is>
-      </c>
-      <c r="D25" s="2" t="inlineStr">
-        <is>
-          <t>1,01; 6,35</t>
-        </is>
-      </c>
-      <c r="E25" s="2" t="inlineStr">
-        <is>
-          <t>-89,33; -85,61</t>
-        </is>
-      </c>
-      <c r="F25" s="2" t="inlineStr">
-        <is>
-          <t>-3,61; 1,5</t>
-        </is>
-      </c>
-      <c r="G25" s="2" t="inlineStr">
-        <is>
-          <t>-3,12; 1,98</t>
-        </is>
-      </c>
-      <c r="H25" s="2" t="inlineStr">
-        <is>
-          <t>-91,93; -88,37</t>
-        </is>
-      </c>
-      <c r="I25" s="2" t="inlineStr">
-        <is>
-          <t>-0,7; 3,06</t>
-        </is>
-      </c>
-      <c r="J25" s="2" t="inlineStr">
-        <is>
-          <t>-0,13; 3,44</t>
-        </is>
-      </c>
-      <c r="K25" s="2" t="inlineStr">
-        <is>
-          <t>-90,15; -87,52</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>Cambio relativo (%)</t>
-        </is>
-      </c>
-      <c r="C26" s="2" t="inlineStr">
-        <is>
-          <t>4,25%</t>
-        </is>
-      </c>
-      <c r="D26" s="2" t="inlineStr">
-        <is>
-          <t>4,33%</t>
-        </is>
-      </c>
-      <c r="E26" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="F26" s="2" t="inlineStr">
-        <is>
-          <t>-1,36%</t>
-        </is>
-      </c>
-      <c r="G26" s="2" t="inlineStr">
-        <is>
-          <t>-0,54%</t>
-        </is>
-      </c>
-      <c r="H26" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-      <c r="I26" s="2" t="inlineStr">
-        <is>
-          <t>1,48%</t>
-        </is>
-      </c>
-      <c r="J26" s="2" t="inlineStr">
-        <is>
-          <t>1,93%</t>
-        </is>
-      </c>
-      <c r="K26" s="2" t="inlineStr">
-        <is>
-          <t>-100,0%</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n"/>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C27" s="2" t="inlineStr">
-        <is>
-          <t>1,16; 7,45</t>
-        </is>
-      </c>
-      <c r="D27" s="2" t="inlineStr">
-        <is>
-          <t>1,15; 7,43</t>
-        </is>
-      </c>
-      <c r="E27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F27" s="2" t="inlineStr">
-        <is>
-          <t>-3,95; 1,72</t>
-        </is>
-      </c>
-      <c r="G27" s="2" t="inlineStr">
-        <is>
-          <t>-3,42; 2,21</t>
-        </is>
-      </c>
-      <c r="H27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I27" s="2" t="inlineStr">
-        <is>
-          <t>-0,78; 3,46</t>
-        </is>
-      </c>
-      <c r="J27" s="2" t="inlineStr">
-        <is>
-          <t>-0,14; 3,93</t>
-        </is>
-      </c>
-      <c r="K27" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A24" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
     <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
@@ -1932,7 +1716,6 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
